--- a/Backlog museo.xlsx
+++ b/Backlog museo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e2203051\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariny\Documents\School\Git\scrum_museum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AECAFBF-D322-43DE-B96E-A4123B74241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA7ABB1-04BE-44FE-83C2-F0FD6F773ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="240" windowWidth="19440" windowHeight="15000" xr2:uid="{40A419B9-220A-4850-AA17-49E1942DDCE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{40A419B9-220A-4850-AA17-49E1942DDCE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -207,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -522,7 +522,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,9 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -638,8 +640,12 @@
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -658,7 +664,9 @@
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -677,7 +685,9 @@
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -696,7 +706,9 @@
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -715,7 +727,9 @@
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -734,7 +748,9 @@
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -753,7 +769,9 @@
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -772,7 +790,9 @@
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -791,7 +811,9 @@
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -810,7 +832,9 @@
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
